--- a/data/surge/surgeData190.xlsx
+++ b/data/surge/surgeData190.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/ADA/CH4_190_Bluestem Lake/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="650" documentId="8_{0B71C30C-F36C-4A20-8050-9DC8EB1D372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8130E140-3A96-4DA8-A6F4-A23A54190721}"/>
+  <xr:revisionPtr revIDLastSave="655" documentId="8_{0B71C30C-F36C-4A20-8050-9DC8EB1D372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13DC5E62-2B90-4854-BC31-5A24E141C403}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1246,6 +1246,10 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1258,16 +1262,12 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1639,172 +1639,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF20" sqref="AF20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="33" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="33"/>
-      <c r="BN1" s="33"/>
-      <c r="BO1" s="33"/>
-      <c r="BP1" s="33"/>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="33"/>
-      <c r="BS1" s="33"/>
-      <c r="BT1" s="32" t="s">
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="34"/>
+      <c r="BT1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="BU1" s="32"/>
-      <c r="BV1" s="32"/>
-      <c r="BW1" s="28" t="s">
+      <c r="BU1" s="29"/>
+      <c r="BV1" s="29"/>
+      <c r="BW1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-    </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BX1" s="30"/>
+      <c r="BY1" s="30"/>
+      <c r="BZ1" s="30"/>
+    </row>
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>173</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>173</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>173</v>
       </c>
@@ -2310,25 +2310,25 @@
         <v>15.2</v>
       </c>
       <c r="AB5">
-        <v>15.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC5">
-        <v>0.1</v>
+        <v>24.68</v>
       </c>
       <c r="AD5">
-        <v>24.68</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="AE5">
-        <v>8.7100000000000009</v>
+        <v>244</v>
       </c>
       <c r="AF5">
-        <v>244</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AG5">
-        <v>8.1999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="AI5">
-        <v>7.6</v>
+        <v>-7.5</v>
       </c>
       <c r="AP5">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>173</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>173</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>173</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>173</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>173</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>173</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>173</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>173</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>173</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>173</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>173</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>173</v>
       </c>
@@ -3643,19 +3643,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229CFC7D-096F-4A49-B44F-3C66E059D51A}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7109375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="17.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.6640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3776,18 +3776,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="C16"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>112</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C37"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="C39"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="C40"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>191</v>
       </c>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="C44"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="C46"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="C47"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>192</v>
       </c>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="C49"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="C50"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>193</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="C59"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="C60"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="C61"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="C62"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="C63"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>194</v>
       </c>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="C64"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="C65"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="C66"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="C67"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="C69"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="C71"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>70</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>73</v>
       </c>
@@ -4471,33 +4471,33 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="24"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="24"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4531,7 +4531,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>173</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>173</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>173</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>173</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>173</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>173</v>
       </c>
@@ -4722,14 +4722,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>153</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>154</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>155</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>156</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>157</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>158</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>159</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>160</v>
       </c>
@@ -4909,8 +4909,8 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9110ddba8137efcfc9b628571238300">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bebf8e6f5f0ff6ff908ec6e1ee4006f7" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint.v3"/>
@@ -4955,6 +4955,7 @@
                 <xsd:element ref="ns6:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns6:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns6:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns6:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5273,6 +5274,11 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="44" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -5404,5 +5410,24 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86A0F383-83A0-4206-A82E-313C4C47EBA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA7B67DF-20A4-4385-83FB-DB8A55ED6923}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>